--- a/steamcase/activity/activityquerycase.xlsx
+++ b/steamcase/activity/activityquerycase.xlsx
@@ -58,22 +58,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>queryActivityDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/steam-resource/admin/product/query-activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":"000000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"currentPage":1
 "pageSize":10
 "resourceTypeId":12
-"title":"城市挑战上海站之【商战豫园】篇"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>queryActivityDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/steam-resource/admin/product/query-activity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"code":"000000"</t>
+"title":"QUEENS PALACE高级定制馆C-自动化"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +453,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -499,20 +499,20 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/steamcase/activity/activityquerycase.xlsx
+++ b/steamcase/activity/activityquerycase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5C42E9A7-B84C-40A2-BD1A-EACBFE39DE48}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usermanager" sheetId="1" r:id="rId1"/>
@@ -50,10 +51,6 @@
     <t>actualResult</t>
   </si>
   <si>
-    <t>media_add_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询一个活动正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,11 +73,15 @@
 "title":"QUEENS PALACE高级定制馆C-自动化"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>media_query_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,11 +450,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -496,23 +497,23 @@
     </row>
     <row r="2" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/steamcase/activity/activityquerycase.xlsx
+++ b/steamcase/activity/activityquerycase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5C42E9A7-B84C-40A2-BD1A-EACBFE39DE48}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{03B6A7F3-1B21-4AAC-A112-C1A8AA3BAEB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>caseid</t>
   </si>
@@ -56,10 +56,6 @@
   </si>
   <si>
     <t>queryActivityDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/steam-resource/admin/product/query-activity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,7 +70,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>media_query_1</t>
+    <t>"currentPage":1
+"pageSize":10
+"resourceTypeId":11
+"title":"QUEENS PALACE高级定制馆C-自动化"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_query_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_add_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询一个商品正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/steam-resource/admin/product/query</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -500,7 +515,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -510,10 +525,31 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/steamcase/activity/activityquerycase.xlsx
+++ b/steamcase/activity/activityquerycase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{03B6A7F3-1B21-4AAC-A112-C1A8AA3BAEB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{56DE9D1F-B844-4577-8041-558FCEA798AB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,7 +89,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/steam-resource/admin/product/query</t>
+    <t>/operation-manage/product/query</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +469,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/steamcase/activity/activityquerycase.xlsx
+++ b/steamcase/activity/activityquerycase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{56DE9D1F-B844-4577-8041-558FCEA798AB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{195D72BC-1E7B-4888-9007-6BF6276765BD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,26 +70,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>activity_query_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_add_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询一个商品正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/operation-manage/product/query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"currentPage":1
 "pageSize":10
 "resourceTypeId":11
-"title":"QUEENS PALACE高级定制馆C-自动化"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_query_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods_add_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询一个商品正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/operation-manage/product/query</t>
+"title":"QUEENS PALACE高级定制馆S-自动化"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +469,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,10 +512,10 @@
     </row>
     <row r="2" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -533,20 +533,20 @@
     </row>
     <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
